--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cthrc1-Ror2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cthrc1-Ror2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.49403</v>
+        <v>0.026182</v>
       </c>
       <c r="H2">
-        <v>1.48209</v>
+        <v>0.078546</v>
       </c>
       <c r="I2">
-        <v>0.2841280960317652</v>
+        <v>0.02060098669457318</v>
       </c>
       <c r="J2">
-        <v>0.2841280960317651</v>
+        <v>0.02060098669457318</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1350926666666667</v>
+        <v>0.04009133333333333</v>
       </c>
       <c r="N2">
-        <v>0.405278</v>
+        <v>0.120274</v>
       </c>
       <c r="O2">
-        <v>0.03398966953169371</v>
+        <v>0.01033409631432067</v>
       </c>
       <c r="P2">
-        <v>0.03398966953169372</v>
+        <v>0.01033409631432067</v>
       </c>
       <c r="Q2">
-        <v>0.06673983011333333</v>
+        <v>0.001049671289333333</v>
       </c>
       <c r="R2">
-        <v>0.60065847102</v>
+        <v>0.009447041604000001</v>
       </c>
       <c r="S2">
-        <v>0.009657420088789033</v>
+        <v>0.0002128925806717579</v>
       </c>
       <c r="T2">
-        <v>0.009657420088789033</v>
+        <v>0.0002128925806717579</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.49403</v>
+        <v>0.026182</v>
       </c>
       <c r="H3">
-        <v>1.48209</v>
+        <v>0.078546</v>
       </c>
       <c r="I3">
-        <v>0.2841280960317652</v>
+        <v>0.02060098669457318</v>
       </c>
       <c r="J3">
-        <v>0.2841280960317651</v>
+        <v>0.02060098669457318</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>6.733711</v>
       </c>
       <c r="O3">
-        <v>0.5647397875333248</v>
+        <v>0.578569084147867</v>
       </c>
       <c r="P3">
-        <v>0.5647397875333248</v>
+        <v>0.578569084147867</v>
       </c>
       <c r="Q3">
-        <v>1.108885081776667</v>
+        <v>0.05876734046733333</v>
       </c>
       <c r="R3">
-        <v>9.97996573599</v>
+        <v>0.5289060642059999</v>
       </c>
       <c r="S3">
-        <v>0.1604584405852272</v>
+        <v>0.0119190940044216</v>
       </c>
       <c r="T3">
-        <v>0.1604584405852272</v>
+        <v>0.0119190940044216</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.49403</v>
+        <v>0.026182</v>
       </c>
       <c r="H4">
-        <v>1.48209</v>
+        <v>0.078546</v>
       </c>
       <c r="I4">
-        <v>0.2841280960317652</v>
+        <v>0.02060098669457318</v>
       </c>
       <c r="J4">
-        <v>0.2841280960317651</v>
+        <v>0.02060098669457318</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>4.784575</v>
       </c>
       <c r="O4">
-        <v>0.4012705429349815</v>
+        <v>0.4110968195378122</v>
       </c>
       <c r="P4">
-        <v>0.4012705429349816</v>
+        <v>0.4110968195378122</v>
       </c>
       <c r="Q4">
-        <v>0.7879078624166667</v>
+        <v>0.04175658088333334</v>
       </c>
       <c r="R4">
-        <v>7.09117076175</v>
+        <v>0.37580922795</v>
       </c>
       <c r="S4">
-        <v>0.114012235357749</v>
+        <v>0.008469000109479822</v>
       </c>
       <c r="T4">
-        <v>0.114012235357749</v>
+        <v>0.008469000109479822</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.519535</v>
       </c>
       <c r="I5">
-        <v>0.6747220333901172</v>
+        <v>0.9231010325934437</v>
       </c>
       <c r="J5">
-        <v>0.6747220333901172</v>
+        <v>0.9231010325934434</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1350926666666667</v>
+        <v>0.04009133333333333</v>
       </c>
       <c r="N5">
-        <v>0.405278</v>
+        <v>0.120274</v>
       </c>
       <c r="O5">
-        <v>0.03398966953169371</v>
+        <v>0.01033409631432067</v>
       </c>
       <c r="P5">
-        <v>0.03398966953169372</v>
+        <v>0.01033409631432067</v>
       </c>
       <c r="Q5">
-        <v>0.1584877895255556</v>
+        <v>0.04703428362111112</v>
       </c>
       <c r="R5">
-        <v>1.42639010573</v>
+        <v>0.4233085525900001</v>
       </c>
       <c r="S5">
-        <v>0.02293357894068249</v>
+        <v>0.009539414978669511</v>
       </c>
       <c r="T5">
-        <v>0.0229335789406825</v>
+        <v>0.009539414978669511</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.519535</v>
       </c>
       <c r="I6">
-        <v>0.6747220333901172</v>
+        <v>0.9231010325934437</v>
       </c>
       <c r="J6">
-        <v>0.6747220333901172</v>
+        <v>0.9231010325934434</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>6.733711</v>
       </c>
       <c r="O6">
-        <v>0.5647397875333248</v>
+        <v>0.578569084147867</v>
       </c>
       <c r="P6">
-        <v>0.5647397875333248</v>
+        <v>0.578569084147867</v>
       </c>
       <c r="Q6">
         <v>2.633281282709445</v>
@@ -818,10 +818,10 @@
         <v>23.699531544385</v>
       </c>
       <c r="S6">
-        <v>0.3810423777807876</v>
+        <v>0.5340777190035391</v>
       </c>
       <c r="T6">
-        <v>0.3810423777807876</v>
+        <v>0.534077719003539</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.519535</v>
       </c>
       <c r="I7">
-        <v>0.6747220333901172</v>
+        <v>0.9231010325934437</v>
       </c>
       <c r="J7">
-        <v>0.6747220333901172</v>
+        <v>0.9231010325934434</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>4.784575</v>
       </c>
       <c r="O7">
-        <v>0.4012705429349815</v>
+        <v>0.4110968195378122</v>
       </c>
       <c r="P7">
-        <v>0.4012705429349816</v>
+        <v>0.4110968195378122</v>
       </c>
       <c r="Q7">
         <v>1.871053241402778</v>
@@ -880,10 +880,10 @@
         <v>16.839479172625</v>
       </c>
       <c r="S7">
-        <v>0.2707460766686471</v>
+        <v>0.379483898611235</v>
       </c>
       <c r="T7">
-        <v>0.2707460766686471</v>
+        <v>0.3794838986112349</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.214649</v>
       </c>
       <c r="I8">
-        <v>0.04114987057811764</v>
+        <v>0.05629798071198328</v>
       </c>
       <c r="J8">
-        <v>0.04114987057811763</v>
+        <v>0.05629798071198327</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1350926666666667</v>
+        <v>0.04009133333333333</v>
       </c>
       <c r="N8">
-        <v>0.405278</v>
+        <v>0.120274</v>
       </c>
       <c r="O8">
-        <v>0.03398966953169371</v>
+        <v>0.01033409631432067</v>
       </c>
       <c r="P8">
-        <v>0.03398966953169372</v>
+        <v>0.01033409631432067</v>
       </c>
       <c r="Q8">
-        <v>0.009665835269111111</v>
+        <v>0.002868521536222222</v>
       </c>
       <c r="R8">
-        <v>0.086992517422</v>
+        <v>0.025816693826</v>
       </c>
       <c r="S8">
-        <v>0.001398670502222184</v>
+        <v>0.0005817887549794026</v>
       </c>
       <c r="T8">
-        <v>0.001398670502222184</v>
+        <v>0.0005817887549794026</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.214649</v>
       </c>
       <c r="I9">
-        <v>0.04114987057811764</v>
+        <v>0.05629798071198328</v>
       </c>
       <c r="J9">
-        <v>0.04114987057811763</v>
+        <v>0.05629798071198327</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>6.733711</v>
       </c>
       <c r="O9">
-        <v>0.5647397875333248</v>
+        <v>0.578569084147867</v>
       </c>
       <c r="P9">
-        <v>0.5647397875333248</v>
+        <v>0.578569084147867</v>
       </c>
       <c r="Q9">
         <v>0.1605982591598889</v>
@@ -1004,10 +1004,10 @@
         <v>1.445384332439</v>
       </c>
       <c r="S9">
-        <v>0.02323896916730997</v>
+        <v>0.03257227113990645</v>
       </c>
       <c r="T9">
-        <v>0.02323896916730996</v>
+        <v>0.03257227113990644</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.214649</v>
       </c>
       <c r="I10">
-        <v>0.04114987057811764</v>
+        <v>0.05629798071198328</v>
       </c>
       <c r="J10">
-        <v>0.04114987057811763</v>
+        <v>0.05629798071198327</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>4.784575</v>
       </c>
       <c r="O10">
-        <v>0.4012705429349815</v>
+        <v>0.4110968195378122</v>
       </c>
       <c r="P10">
-        <v>0.4012705429349816</v>
+        <v>0.4110968195378122</v>
       </c>
       <c r="Q10">
         <v>0.1141115821305556</v>
@@ -1066,10 +1066,10 @@
         <v>1.027004239175</v>
       </c>
       <c r="S10">
-        <v>0.01651223090858549</v>
+        <v>0.02314392081709742</v>
       </c>
       <c r="T10">
-        <v>0.01651223090858549</v>
+        <v>0.02314392081709742</v>
       </c>
     </row>
   </sheetData>
